--- a/Documentation/Test Cases/Test Cases Updated.xlsx
+++ b/Documentation/Test Cases/Test Cases Updated.xlsx
@@ -5,19 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaan\Desktop\SMU\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C6217B-40B8-4DD7-A0A1-9AC0A0280228}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEE009D-C139-49AB-89EF-ADA11377075F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" tabRatio="914" xr2:uid="{C6E4BB7B-75ED-42D2-8931-FE7C9C9824C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration and authentication" sheetId="1" r:id="rId1"/>
-    <sheet name="Appointment Booking" sheetId="3" r:id="rId2"/>
-    <sheet name="Member Management" sheetId="2" r:id="rId3"/>
-    <sheet name="Bug Log" sheetId="5" r:id="rId4"/>
+    <sheet name="Registration and authentication" sheetId="7" r:id="rId1"/>
+    <sheet name="Appointment Booking" sheetId="8" r:id="rId2"/>
+    <sheet name="Member Management" sheetId="9" r:id="rId3"/>
+    <sheet name="Inventory Management" sheetId="10" r:id="rId4"/>
+    <sheet name="UI" sheetId="11" r:id="rId5"/>
+    <sheet name="Bug Log" sheetId="12" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Bug Log'!$A$1:$G$12</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
   <si>
     <t>S/N</t>
   </si>
@@ -319,9 +324,6 @@
     <t>Y, but it showed a blank page, to show some words like "unsuccessful booking" instead</t>
   </si>
   <si>
-    <t>N, to include validation for before/after operating hours</t>
-  </si>
-  <si>
     <t>Pending knowledge from client abt how long each service takes at minimum</t>
   </si>
   <si>
@@ -376,20 +378,174 @@
     <t>Appointment Booking</t>
   </si>
   <si>
-    <t>3 moderate, 1 minor</t>
-  </si>
-  <si>
     <t>Member Management</t>
   </si>
   <si>
     <t>Moderate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Validity of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fields other than password</t>
+    </r>
+  </si>
+  <si>
+    <t>Attempt to use duplicate username</t>
+  </si>
+  <si>
+    <t>Fill in form using already existing username</t>
+  </si>
+  <si>
+    <t>Account should not be able to be created, and user should be asked to change to a non-duplicate username</t>
+  </si>
+  <si>
+    <t>Attempt to use invalid phone number</t>
+  </si>
+  <si>
+    <t>Account should not be able to be created, and user should be asked to change to a non-duplicate phone number</t>
+  </si>
+  <si>
+    <t>Account should not be able to be created, and user should be asked to fill in phone number correctly</t>
+  </si>
+  <si>
+    <t>Y for logic, but for UI, refer to UI tab</t>
+  </si>
+  <si>
+    <t>Attempt to use duplicate email address</t>
+  </si>
+  <si>
+    <t>Fill in form using already existing email address</t>
+  </si>
+  <si>
+    <t>Account should not be able to be created, and user should be asked to change to a non-duplicate email address</t>
+  </si>
+  <si>
+    <t>Y for logic, but met with a blank screen instead of error message</t>
+  </si>
+  <si>
+    <t>Password-related</t>
+  </si>
+  <si>
+    <t>Account should be created</t>
+  </si>
+  <si>
+    <t>Should not be able to book, or website automatically corrects it to the time the user probably meant (eg. 04:00 not as 4am but as 4pm)</t>
+  </si>
+  <si>
+    <t>Check ability to view appointment</t>
+  </si>
+  <si>
+    <t>View appointment</t>
+  </si>
+  <si>
+    <t>All appointments made should be listed there</t>
+  </si>
+  <si>
+    <t>N, refer to screenshot below</t>
+  </si>
+  <si>
+    <t>N, no such functionality</t>
+  </si>
+  <si>
+    <t>N, DB shows have pts but website says 0 pts</t>
+  </si>
+  <si>
+    <t>Screenshot for test procedure 1</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Area of website</t>
+  </si>
+  <si>
+    <t>Drop-down list</t>
+  </si>
+  <si>
+    <t>Text should be visible</t>
+  </si>
+  <si>
+    <t>N, to use more contrasting colours for visibility</t>
+  </si>
+  <si>
+    <t>All buttons required should be displayed</t>
+  </si>
+  <si>
+    <t>N, to add button for logging out
+Note: Only customer side doesn't have this yet, admin side correctly shows log out button</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Validation text should be consistent with actual validation</t>
+  </si>
+  <si>
+    <t>N, form correctly did not process invalid mobile number, but the validation text right below the field approved of the invalid number</t>
+  </si>
+  <si>
+    <t>Screenshot for checklist point 1</t>
+  </si>
+  <si>
+    <t>Screenshot for checklist point 3</t>
+  </si>
+  <si>
+    <t>Functionality</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 moderate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2 minor</t>
+    </r>
+  </si>
+  <si>
+    <t>6 Moderate, 1 minor</t>
+  </si>
+  <si>
+    <t>Website takes a while to load across all pages</t>
+  </si>
+  <si>
+    <t>User-friendliness</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>2 moderate, 2 minor</t>
+  </si>
+  <si>
+    <t>Minor because it relates to a security feature or will be fixed when UI is refined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -419,6 +575,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -553,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -605,30 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -636,26 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -674,8 +794,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,6 +913,165 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2292177</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D118C2-9F15-4AFB-8294-7094F58990E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4673600"/>
+          <a:ext cx="4965527" cy="2654300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08472C0B-DE81-4F19-89AD-60600E68A756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1511300"/>
+          <a:ext cx="1778000" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49BCDF7-EAA2-477B-8DB8-4FD5736ACA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3486150"/>
+          <a:ext cx="2222500" cy="1504545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,8 +1370,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3044F3-84E0-4E65-B040-A208DACC2A78}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D0D965-5385-4426-B72C-3B60AFB54F78}">
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,7 +1381,7 @@
     <col min="2" max="2" width="33.296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.19921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="43" style="2" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
@@ -1018,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1027,238 +1406,358 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
+        <v>2</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <v>3</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="31"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
+        <v>4</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="E13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>6</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>8</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>10</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F19" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="7" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="F5:F9"/>
+  <mergeCells count="7">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="F12:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E2D827-E721-46A5-BB69-74C57217E1B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725E66B3-E427-4527-A512-26C1BB222B6D}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B15"/>
-    </sheetView>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="14"/>
     <col min="2" max="2" width="50.3984375" style="16" customWidth="1"/>
     <col min="3" max="3" width="70.69921875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="39" style="16" customWidth="1"/>
+    <col min="4" max="4" width="59.19921875" style="16" customWidth="1"/>
     <col min="5" max="5" width="72.5" style="14" customWidth="1"/>
     <col min="6" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1778,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1288,7 +1787,7 @@
       <c r="D2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1296,14 +1795,14 @@
       <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="22" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1311,60 +1810,60 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>85</v>
+      <c r="D6" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>86</v>
+      <c r="E7" s="20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.25">
@@ -1380,7 +1879,7 @@
       <c r="D8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1397,7 +1896,7 @@
       <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1414,26 +1913,43 @@
       <c r="D10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>87</v>
+      <c r="E10" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>91</v>
+      <c r="A13" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="7" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1446,12 +1962,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C323CDC-1B6D-4FA0-B5F7-5E44D39740BC}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B843431-C140-491F-9FE0-AE638BA4A810}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1459,12 +1973,12 @@
     <col min="2" max="2" width="33.296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1484,11 +1998,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="39" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -1501,14 +2015,15 @@
         <v>66</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+        <v>123</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="18" t="s">
         <v>59</v>
       </c>
@@ -1518,15 +2033,15 @@
       <c r="E3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="F3" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="18" t="s">
         <v>72</v>
       </c>
@@ -1540,11 +2055,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="18" t="s">
         <v>72</v>
       </c>
@@ -1558,11 +2073,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="18" t="s">
         <v>72</v>
       </c>
@@ -1576,25 +2091,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-    </row>
-    <row r="8" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+    </row>
+    <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>7</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="18" t="s">
         <v>54</v>
       </c>
@@ -1605,14 +2120,14 @@
         <v>69</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="18" t="s">
         <v>73</v>
       </c>
@@ -1623,14 +2138,14 @@
         <v>71</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1642,15 +2157,15 @@
       <c r="E10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="F10" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="18" t="s">
         <v>74</v>
       </c>
@@ -1660,15 +2175,15 @@
       <c r="E11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -1680,15 +2195,15 @@
       <c r="E12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="F12" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="18" t="s">
         <v>75</v>
       </c>
@@ -1698,169 +2213,385 @@
       <c r="E13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
       <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="7" t="s">
-        <v>90</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F412C54B-3467-440E-AF03-B34D53894E52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83984C1-F22B-4184-95DA-0872D39F1DBE}">
-  <dimension ref="A1:F11"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F468BFCF-49BE-4785-944E-9E84D0C60769}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.8984375" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="61">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61">
+        <v>2</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="61">
+        <v>3</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059F0166-2D2E-4F37-B02C-64AAF9023343}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="29.69921875" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="E1" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="F1" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="G1" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="66" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65">
+        <v>1</v>
+      </c>
+      <c r="B2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="C2" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="65">
+        <v>1</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="67">
+        <v>43251</v>
+      </c>
+      <c r="G2" s="67" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="27">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="28">
+        <v>43253</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="27">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="28">
+        <v>43253</v>
+      </c>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="27">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="28">
+        <v>43253</v>
+      </c>
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="27">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="26">
+        <v>43266</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="27">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="41">
-        <v>43251</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="42">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F7" s="26">
+        <v>43266</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="43">
-        <v>43253</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="42">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="42">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="27">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="42">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="46"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="7" t="s">
+      <c r="E8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="26">
+        <v>43266</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
+  <autoFilter ref="A1:G12" xr:uid="{C05CDD83-8E56-45AE-9F67-1E588D3AE384}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Open"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="G3:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>